--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Country Details\Madagascar\MDG_Master_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-madagascar\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEEAC14-AD5B-451E-9788-EB1FB04DDEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20677E09-9A0D-40E5-8FE5-69F4F91067E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{97B49F44-EFC3-4106-8AD9-48CD17FA86FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{97B49F44-EFC3-4106-8AD9-48CD17FA86FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="410">
   <si>
     <t>id</t>
   </si>
@@ -78,9 +78,6 @@
     <t>velocity</t>
   </si>
   <si>
-    <t>Dear $name Your Authentication of $idvidType $idvid using $authType on $date at $time Hrs $status at a device deployed by MOSIP Services</t>
-  </si>
-  <si>
     <t>ID Authentication</t>
   </si>
   <si>
@@ -96,18 +93,12 @@
     <t>Template for authorization subject</t>
   </si>
   <si>
-    <t>$idvidType $idvid Authentication $status</t>
-  </si>
-  <si>
     <t>auth-email-subject</t>
   </si>
   <si>
     <t>Template for authorization SMS</t>
   </si>
   <si>
-    <t>Your Authentication of $idvidType $idvid using $authType on $date at $time Hrs $status at a device deployed by MOSIP Services.</t>
-  </si>
-  <si>
     <t>auth-sms</t>
   </si>
   <si>
@@ -120,9 +111,6 @@
     <t>OTP Send Service</t>
   </si>
   <si>
-    <t>Please find the OTP $otp</t>
-  </si>
-  <si>
     <t>otp-sms-template</t>
   </si>
   <si>
@@ -132,18 +120,12 @@
     <t>auth otp service for sending otp</t>
   </si>
   <si>
-    <t>Please find the otp $otp</t>
-  </si>
-  <si>
     <t>auth-otp-sms-template</t>
   </si>
   <si>
     <t>auth otp email service subject</t>
   </si>
   <si>
-    <t>Otp message</t>
-  </si>
-  <si>
     <t>auth-otp-email-subject-template</t>
   </si>
   <si>
@@ -153,36 +135,24 @@
     <t>Template for Email Content</t>
   </si>
   <si>
-    <t>Dear $name OTP for $idvidType $idvid is $otp and is valid for $validTime minutes. (Generated on $date at $time Hrs)</t>
-  </si>
-  <si>
     <t>ida-auth-otp-email-content-template</t>
   </si>
   <si>
     <t>Template for Email Subject</t>
   </si>
   <si>
-    <t>$idvidType $idvid: OTP Request</t>
-  </si>
-  <si>
     <t>ida-auth-otp-email-subject-template</t>
   </si>
   <si>
     <t>Template for OTP in SMS</t>
   </si>
   <si>
-    <t>OTP for $idvidType $idvid is $otp and is valid for $validTime minutes. (Generated on $date at $time Hrs)</t>
-  </si>
-  <si>
     <t>ida-auth-otp-sms-template</t>
   </si>
   <si>
     <t>Template for Email Acknowledgement</t>
   </si>
   <si>
-    <t>Dear $name, Your Pre-Registration for UIN is Completed Successfully on $Date at $Time. Your ID is #$PRID. Appointment is scheduled for $Appointmentdate at $Appointmenttime .\r\nIn Registration Center Name $RegistrationCenterName at Registration Center Address $RegistrationCenterAddress. you will also receive the details on your registered Mobile Number</t>
-  </si>
-  <si>
     <t>Pre-Registration</t>
   </si>
   <si>
@@ -192,42 +162,27 @@
     <t>Template for Onscreen Acknowledgment</t>
   </si>
   <si>
-    <t>1. Guideline 1 2. Guideline 2 3. Guideline 3 4. Guideline 4 5. Guideline 5 6. Guideline 6 7. Guideline 7 8. Guideline 8 9. Guideline 9 10. Guideline 10</t>
-  </si>
-  <si>
     <t>Onscreen-Acknowledgement</t>
   </si>
   <si>
     <t>Template for OTP Email Content</t>
   </si>
   <si>
-    <t>Dear $name, TP for Pre-Registration $PRID is $otp and is valid for $validTime minutes. (Generated on $date at $time Hrs)</t>
-  </si>
-  <si>
     <t>otp-email-content-template</t>
   </si>
   <si>
     <t>Template for OTP Email Subject</t>
   </si>
   <si>
-    <t>Pre-Registration $PRID: OTP Request</t>
-  </si>
-  <si>
     <t>otp-email-subject-template</t>
   </si>
   <si>
     <t>Template for OTP SMS</t>
   </si>
   <si>
-    <t>OTP for Pre-Registration $PRID is $otp and is valid for $validTime minutes. (Generated on $date at $time Hrs)</t>
-  </si>
-  <si>
     <t>Template for SMS Acknowledgement</t>
   </si>
   <si>
-    <t>Your Pre-Registration for UIN is Completed Successfully on $Date at $Time. Your ID is #$PRID. Appointment is scheduled for $Appointmentdate at $Appointmenttime. you will also receive the details on your registered email address</t>
-  </si>
-  <si>
     <t>SMS-Acknowledgement</t>
   </si>
   <si>
@@ -246,36 +201,24 @@
     <t>Consent</t>
   </si>
   <si>
-    <t>I understand that the data collected about me during pre-registration by the said authority includes my - • Name • Date of birth • Gender • Address • Contact details • Documents I also understand that this information will be stored and processed for the purpose of verifying my identity in order to access various services, or to comply with a legal obligation. I give my consent for the collection of this data for this purpose.</t>
-  </si>
-  <si>
     <t>consent</t>
   </si>
   <si>
     <t>Template for Cancel Appointment</t>
   </si>
   <si>
-    <t>Dear $name, Your appointment for pre-registration id, $PRID and appointment date and time, $Appointmentdate $Appointmenttime has been canceled due to a government emergency/holiday. Please re-book another slot for Registration. Thanks</t>
-  </si>
-  <si>
     <t>cancel-appointment</t>
   </si>
   <si>
     <t>Template for email subject of cancel Appointment</t>
   </si>
   <si>
-    <t>Appointment Cancelled: Pre-Registration $PRID</t>
-  </si>
-  <si>
     <t>cancel-appointment-email-subject</t>
   </si>
   <si>
     <t>Template for new registration Email Content</t>
   </si>
   <si>
-    <t>Dear $name, Thank you for registering with the digital identity platform. Your registration id is $RegistrationID. If there are any corrections to be made in your details, please contact the Registration centre within the next 4 days.</t>
-  </si>
-  <si>
     <t>Registration Client</t>
   </si>
   <si>
@@ -285,9 +228,6 @@
     <t>Template for new registration Email Subject</t>
   </si>
   <si>
-    <t>Registration confirmation</t>
-  </si>
-  <si>
     <t>NewReg-email-subject-template</t>
   </si>
   <si>
@@ -300,18 +240,12 @@
     <t>Template for OTP generation Email Content</t>
   </si>
   <si>
-    <t>Dear $name, OTP for username $username is $otp and is valid for $validTime minutes (Generated on $date at $time hrs).</t>
-  </si>
-  <si>
     <t>OTP-email-content-template</t>
   </si>
   <si>
     <t>Template for OTP generation Email Subject</t>
   </si>
   <si>
-    <t>One time password from digital identify platfor</t>
-  </si>
-  <si>
     <t>OTP-email-subject-template</t>
   </si>
   <si>
@@ -321,18 +255,12 @@
     <t>Template for update registration Email Content</t>
   </si>
   <si>
-    <t>Dear $name, Thank you for updating your details with the digital identity platform. Your registration id is $RegistrationID. If there are any corrections to be made in your details, please contact the Registration centre within the next 4 days.</t>
-  </si>
-  <si>
     <t>Update-email-content-template</t>
   </si>
   <si>
     <t>Template for update registration Email Subject</t>
   </si>
   <si>
-    <t>Registration update confirmation</t>
-  </si>
-  <si>
     <t>Update-email-subject-template</t>
   </si>
   <si>
@@ -384,18 +312,12 @@
     <t>Consent in Registration Client</t>
   </si>
   <si>
-    <t>&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;title&gt;Consent&lt;/title&gt;&lt;/head&gt;&lt;body&gt;&lt;div&gt;I understand that the data collected about me during registration by the said authority includes &lt;br&gt;&lt;br&gt;&amp;#x2022 Name &lt;br&gt; &amp;#x2022 Date of birth &lt;br&gt; &amp;#x2022 Gender &lt;br&gt; &amp;#x2022 Address &lt;br&gt; &amp;#x2022 Contact details &lt;br&gt; &amp;#x2022 Documents&lt;br&gt; &amp;#x2022 Biometrics &lt;br&gt; &lt;br&gt;I also understand that this information will be stored and processed for the purpose of verifying my identity in order to access various services, or to comply with a legal obligation. I give my consent for the collection of this data for this purpose&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
     <t>Registration Consent</t>
   </si>
   <si>
     <t>Template for duplicate UIN Email</t>
   </si>
   <si>
-    <t>Dear $!name_fra, Your request for UIN for Registration ID: $!RID has failed because a duplicate UIN has been found against your details. Please visit your nearest Registration office or visit https://mosip.io/grievances Thank You</t>
-  </si>
-  <si>
     <t>Registration Processor</t>
   </si>
   <si>
@@ -405,63 +327,42 @@
     <t>Template for duplicate UIN SMS</t>
   </si>
   <si>
-    <t>Dear $!name_fra, Your request for UIN for Registration ID: $!RID has failed because a duplicate UIN has been found against your details. Please visit your nearest Registration office or visit https://mosip.io/grievances</t>
-  </si>
-  <si>
     <t>RPR_DUP_UIN_SMS</t>
   </si>
   <si>
     <t>Template for Technical Issue Email</t>
   </si>
   <si>
-    <t>Dear $!name_fra, Your request for UIN for Registration ID: $!RID has failed because of a technical issue. Please visit your nearest Registration office or visit https://mosip.io/grievances Thank You</t>
-  </si>
-  <si>
     <t>RPR_TEC_ISSUE_EMAIL</t>
   </si>
   <si>
     <t>Template for Technical Issue SMS</t>
   </si>
   <si>
-    <t>Dear $!name_fra, Your request for UIN for Registration ID: $!RID has failed because of a technical issue. Please visit your nearest Registration office or visit https://mosip.io/grievances</t>
-  </si>
-  <si>
     <t>RPR_TEC_ISSUE_SMS</t>
   </si>
   <si>
     <t>Template for UIN generation Email</t>
   </si>
   <si>
-    <t>Dear $name_fra, Your UIN for Registration ID: $!RID has been successfully generated and will reach soon at your postal address. Thank You</t>
-  </si>
-  <si>
     <t>RPR_UIN_GEN_EMAIL</t>
   </si>
   <si>
     <t>Template for UIN generation SMS</t>
   </si>
   <si>
-    <t>Dear $name_fra, Your UIN for Registration ID: $!RID has been successfully generated and will reach soon at your postal address.</t>
-  </si>
-  <si>
     <t>RPR_UIN_GEN_SMS</t>
   </si>
   <si>
     <t>Template for update details Email</t>
   </si>
   <si>
-    <t>Dear $!name_fra, Your UIN details for the Registration ID: $!RID have been updated and a physical copy of your UIN card will reach you soon at your postal address. Thank You</t>
-  </si>
-  <si>
     <t>RPR_UIN_UPD_EMAIL</t>
   </si>
   <si>
     <t>Template for update Details SMS</t>
   </si>
   <si>
-    <t>Dear $!name_fra, Your UIN details for the Registration ID: $!RID have been updated and a physical copy of your UIN card will reach you soon at your postal address.</t>
-  </si>
-  <si>
     <t>RPR_UIN_UPD_SMS</t>
   </si>
   <si>
@@ -480,54 +381,36 @@
     <t>Template for UIN Deactivation SMS</t>
   </si>
   <si>
-    <t>Dear $!name_fra, Your UIN has been de-activated. If you have any concerns please visit the nearest Registration Center.</t>
-  </si>
-  <si>
     <t>RPR_UIN_DEAC_SMS</t>
   </si>
   <si>
     <t>Template for UIN Deactivation Email</t>
   </si>
   <si>
-    <t>Dear $!name_fra, Your UIN has been de-activated. If you have any conserns please visit the nearest Registration Center. Thank You</t>
-  </si>
-  <si>
     <t>RPR_UIN_DEAC_EMAIL</t>
   </si>
   <si>
     <t>Template for UIN Reactivate SMS</t>
   </si>
   <si>
-    <t>Dear $!name_fra, Your UIN has been re-activated. If you have any conserns please visit the nearest Registration Center.</t>
-  </si>
-  <si>
     <t>RPR_UIN_REAC_SMS</t>
   </si>
   <si>
     <t>Template for UIN Reactivate Email</t>
   </si>
   <si>
-    <t>Dear $!name_fra, Your UIN has been re-activated. If you have any conserns please visit the nearest Registration Center. Thank You</t>
-  </si>
-  <si>
     <t>RPR_UIN_REAC_EMAIL</t>
   </si>
   <si>
     <t>Lost UIN Notification SMS</t>
   </si>
   <si>
-    <t>Dear $name_fra, Your UIN is Found. You will receive your UIN Card soon at your Postal Address.</t>
-  </si>
-  <si>
     <t>RPR_LOST_UIN_SMS</t>
   </si>
   <si>
     <t>Lost UIN Notification Email</t>
   </si>
   <si>
-    <t>Dear $name_fra, Your UIN is Found. You will receive your UIN Card soon at your Postal Address. Thank You</t>
-  </si>
-  <si>
     <t>RPR_LOST_UIN_EMAIL</t>
   </si>
   <si>
@@ -543,9 +426,6 @@
     <t>Registration Packet Validation Success Email</t>
   </si>
   <si>
-    <t>Hi $!name_fra, We have received your request for registration against the RID: $!RID. This request is under processing. Thank You</t>
-  </si>
-  <si>
     <t>RPR_RPV_SUC_EMAIL</t>
   </si>
   <si>
@@ -558,9 +438,6 @@
     <t>Update Packet Validation Success Email</t>
   </si>
   <si>
-    <t>Hi $!name_fra, We have received your request for updating your details against the RID: $!RID. This request is under processing. Thank You</t>
-  </si>
-  <si>
     <t>RPR_UPV_SUC_EMAIL</t>
   </si>
   <si>
@@ -573,9 +450,6 @@
     <t>Lost Packet Validation Success Email</t>
   </si>
   <si>
-    <t>Hi $!name_fra, We have received your request for finding your UIN details against the RID: $!RID. This request is under processing. Thank You</t>
-  </si>
-  <si>
     <t>RPR_LPV_SUC_EMAIL</t>
   </si>
   <si>
@@ -600,9 +474,6 @@
     <t>Re-print Packet Validation Success Email</t>
   </si>
   <si>
-    <t>Hi $!name_fra, We have received your request for re-printing your UIN against the RID: $!RID. This request is under processing. Thank You</t>
-  </si>
-  <si>
     <t>RPR_PPV_SUC_EMAIL</t>
   </si>
   <si>
@@ -615,9 +486,6 @@
     <t>Activate Packet Validation Success Email</t>
   </si>
   <si>
-    <t>Hi $!name_fra, We have received your request for activating your UIN against the RID: $!RID. This request is under processing. Thank You</t>
-  </si>
-  <si>
     <t>RPR_APV_SUC_EMAIL</t>
   </si>
   <si>
@@ -630,9 +498,6 @@
     <t>De-activate Packet Validation Success Email</t>
   </si>
   <si>
-    <t>Hi $!name_fra, We have received your request for de-activating your UIN against the RID: $!RID. This request is under processing. Thank You</t>
-  </si>
-  <si>
     <t>RPR_DPV_SUC_EMAIL</t>
   </si>
   <si>
@@ -645,36 +510,24 @@
     <t>Registration Packet Validation Success Email Sub</t>
   </si>
   <si>
-    <t>Registration Confirmation</t>
-  </si>
-  <si>
     <t>RPR_RPV_SUC_EMAIL_SUB</t>
   </si>
   <si>
     <t>Update Packet Validation Success Email Sub</t>
   </si>
   <si>
-    <t>Update Request Confirmation</t>
-  </si>
-  <si>
     <t>RPR_UPV_SUC_EMAIL_SUB</t>
   </si>
   <si>
     <t>Lost Packet Validation Success Email Sub</t>
   </si>
   <si>
-    <t>Lost Request Confirmation</t>
-  </si>
-  <si>
     <t>RPR_LPV_SUC_EMAIL_SUB</t>
   </si>
   <si>
     <t>Re-print Packet Validation Success Email Sub</t>
   </si>
   <si>
-    <t>Re-print Request Confirmation</t>
-  </si>
-  <si>
     <t>RPR_PPV_SUC_EMAIL_SUB</t>
   </si>
   <si>
@@ -687,29 +540,18 @@
     <t>Activate Packet Validation Success Email Sub</t>
   </si>
   <si>
-    <t>Activation Request Confirmation</t>
-  </si>
-  <si>
     <t>RPR_APV_SUC_EMAIL_SUB</t>
   </si>
   <si>
     <t>De-activate Packet Validation Success Email Sub</t>
   </si>
   <si>
-    <t>Deactivation Request Confirmation</t>
-  </si>
-  <si>
     <t>RPR_DPV_SUC_EMAIL_SUB</t>
   </si>
   <si>
     <t>Email template requesting for additional info</t>
   </si>
   <si>
-    <t>Dear $!name_fra,
-Your request for UIN for Registration ID: $!RID is on hold because of requiring additional details with AdditionalInfoRequestId $!additionalInfoRequestId and additionalInfoProcess $!additionalInfoProcess. Please visit your nearest Registration office or visit https://mosip.io/grievances for progressing on the application of UIN
-Thank You</t>
-  </si>
-  <si>
     <t>RPR_PAUSED_FOR_ADD_INFO_EMAIL</t>
   </si>
   <si>
@@ -764,9 +606,6 @@
     <t>Authentication History Request Success Email</t>
   </si>
   <si>
-    <t>Hi $fullName_fra, Your Request for Authentication History has been processed successfully. Thank You!</t>
-  </si>
-  <si>
     <t>Resident Services</t>
   </si>
   <si>
@@ -782,18 +621,12 @@
     <t>Authentication History Request Success EMAIL Subject</t>
   </si>
   <si>
-    <t>Authentication History Request Success</t>
-  </si>
-  <si>
     <t>RS_AUTH_HIST_SUCCESS_EMAIL_SUB</t>
   </si>
   <si>
     <t>Successful Download of e-UIN Email</t>
   </si>
   <si>
-    <t>Hi $fullName_fra, Congratulations your request is processed. The request for downloading your e-UIN is Successful. Thank You!</t>
-  </si>
-  <si>
     <t>RS_DOW_UIN_SUCCESS_EMAIL</t>
   </si>
   <si>
@@ -803,9 +636,6 @@
     <t>Download e-UIN Status Email Subject</t>
   </si>
   <si>
-    <t>Download e-UIN is Successful</t>
-  </si>
-  <si>
     <t>RS_DOW_UIN_SUCCESS_EMAIL_SUB</t>
   </si>
   <si>
@@ -818,18 +648,12 @@
     <t>Successful Locking of Auth Types Email</t>
   </si>
   <si>
-    <t>Hi $fullName_fra, Your requested AUTH type(s) have been locked successfully. Thank You!</t>
-  </si>
-  <si>
     <t>RS_LOCK_AUTH_SUCCESS_EMAIL</t>
   </si>
   <si>
     <t>Successful Locking of Auth Types Email Subject</t>
   </si>
   <si>
-    <t>Successfully Locked the AUTH Type(s)</t>
-  </si>
-  <si>
     <t>RS_LOCK_AUTH_SUCCESS_EMAIL_SUB</t>
   </si>
   <si>
@@ -842,18 +666,12 @@
     <t>Successful Unlocking of Auth Types Email</t>
   </si>
   <si>
-    <t>Hi $fullName_fra, Your requested AUTH type(s) have been unlocked successfully. Thank You!</t>
-  </si>
-  <si>
     <t>RS_UNLOCK_AUTH_SUCCESS_EMAIL</t>
   </si>
   <si>
     <t>Successful Unlocking of Auth Types Email Subject</t>
   </si>
   <si>
-    <t>Successfully Unlocked the AUTH Type(s)</t>
-  </si>
-  <si>
     <t>RS_UNLOCK_AUTH_SUCCESS_EMAIL_SUB</t>
   </si>
   <si>
@@ -866,18 +684,12 @@
     <t>VID Generation Success Email</t>
   </si>
   <si>
-    <t>Hi $fullName_fra, Your VID for your UIN has been successfully generated. Your VID number is $VID. Thank You!</t>
-  </si>
-  <si>
     <t>RS_VIN_GEN_SUCCESS_EMAIL</t>
   </si>
   <si>
     <t>VID Generation Success Email Subject</t>
   </si>
   <si>
-    <t>Successful Generation of VID</t>
-  </si>
-  <si>
     <t>RS_VIN_GEN_SUCCESS_EMAIL_SUB</t>
   </si>
   <si>
@@ -890,18 +702,12 @@
     <t>VID Revocation Success Email</t>
   </si>
   <si>
-    <t>Hi $fullName_fra, Your $VID has been successfully revoked. Thank You!</t>
-  </si>
-  <si>
     <t>RS_VIN_REV_SUCCESS_EMAIL</t>
   </si>
   <si>
     <t>VID Revocation Success Email Subject</t>
   </si>
   <si>
-    <t>Successful Revocation of VID</t>
-  </si>
-  <si>
     <t>RS_VIN_REV_SUCCESS_EMAIL_SUB</t>
   </si>
   <si>
@@ -914,18 +720,12 @@
     <t>Reprint Request Success Email</t>
   </si>
   <si>
-    <t>Hi $fullName_fra, Your request for "Reprint Of UIN" has been successfully placed. Your RID (Req Number) is $RID. Thank You!</t>
-  </si>
-  <si>
     <t>RS_UIN_RPR_SUCCESS_EMAIL</t>
   </si>
   <si>
     <t>Reprint Request Success Email Subject</t>
   </si>
   <si>
-    <t>Reprint Request Successful</t>
-  </si>
-  <si>
     <t>RS_UIN_RPR_SUCCESS_EMAIL_SUB</t>
   </si>
   <si>
@@ -938,45 +738,30 @@
     <t>Authentication History Request Failure Email</t>
   </si>
   <si>
-    <t>Hi $fullName_fra, Your Request to fetch your Authentication History details has failed. Thank You!</t>
-  </si>
-  <si>
     <t>RS_AUTH_HIST_FAILURE_EMAIL</t>
   </si>
   <si>
     <t>Authentication History Request Failure Email Subject</t>
   </si>
   <si>
-    <t>Authentication History Request Failure</t>
-  </si>
-  <si>
     <t>RS_AUTH_HIST_FAILURE_EMAIL_SUB</t>
   </si>
   <si>
     <t>Authentication History Request Failure SMS</t>
   </si>
   <si>
-    <t>Hi $fullName_fra, Your Request for Authentication History has failed. Thank You!</t>
-  </si>
-  <si>
     <t>RS_AUTH_HIST_FAILURE_SMS</t>
   </si>
   <si>
     <t>Download e-UIN Failure Email</t>
   </si>
   <si>
-    <t>Hi $fullName_fra, Your request for downloading your e-UIN has failed. Please try again later. Thank You!</t>
-  </si>
-  <si>
     <t>RS_DOW_UIN_FAILURE_EMAIL</t>
   </si>
   <si>
     <t>Download e-UIN Failure Email Subject</t>
   </si>
   <si>
-    <t>Download e-UIN Failure</t>
-  </si>
-  <si>
     <t>RS_DOW_UIN_FAILURE_EMAIL_SUB</t>
   </si>
   <si>
@@ -989,18 +774,12 @@
     <t>Failure in Locking of Auth Types Email</t>
   </si>
   <si>
-    <t>Hi $fullName_fra, Your requested for Locking AUTH type(s) has failed. Please try again later. Thank You!</t>
-  </si>
-  <si>
     <t>RS_LOCK_AUTH_FAILURE_EMAIL</t>
   </si>
   <si>
     <t>Failure in Locking of Auth Types Email Subject</t>
   </si>
   <si>
-    <t>Locking of AUTH Type(s) Failed</t>
-  </si>
-  <si>
     <t>RS_LOCK_AUTH_FAILURE_EMAIL_SUB</t>
   </si>
   <si>
@@ -1013,18 +792,12 @@
     <t>Reprint Request Failure Email</t>
   </si>
   <si>
-    <t>Hi $fullName_fra, Your request for "Reprint of UIN Card" has failed. Please try again later. Thank You!</t>
-  </si>
-  <si>
     <t>RS_UIN_RPR_FAILURE_EMAIL</t>
   </si>
   <si>
     <t>Reprint Request Failure Email Subject</t>
   </si>
   <si>
-    <t>Reprint Request Failure</t>
-  </si>
-  <si>
     <t>RS_UIN_RPR_FAILURE_EMAIL_SUB</t>
   </si>
   <si>
@@ -1037,9 +810,6 @@
     <t>Failure in Unlocking of Auth Types Email</t>
   </si>
   <si>
-    <t>Hi $fullName_fra, Your requested for unlocking AUTH type(s) has failed. Please try again later. Thank You!</t>
-  </si>
-  <si>
     <t>RS_UNLOCK_AUTH_FAILURE_EMAIL</t>
   </si>
   <si>
@@ -1061,18 +831,12 @@
     <t>VID Generation Failure Email</t>
   </si>
   <si>
-    <t>Hi $fullName_fra, VID generation for your UIN failed. Please try again later. Thank You!</t>
-  </si>
-  <si>
     <t>RS_VIN_GEN_FAILURE_EMAIL</t>
   </si>
   <si>
     <t>VID Generation Failure Email Subject</t>
   </si>
   <si>
-    <t>VID Generation Failure</t>
-  </si>
-  <si>
     <t>RS_VIN_GEN_FAILURE_EMAIL_SUB</t>
   </si>
   <si>
@@ -1085,18 +849,12 @@
     <t>VID Revocation Failure Email</t>
   </si>
   <si>
-    <t>Hi $fullName_fra, Your $VID revokation has failed. Please try again later. Thank You!</t>
-  </si>
-  <si>
     <t>RS_VIN_REV_FAILURE_EMAIL</t>
   </si>
   <si>
     <t>VID Revocation Failure Email Subject</t>
   </si>
   <si>
-    <t>VID Revokation Failure</t>
-  </si>
-  <si>
     <t>RS_VIN_REV_FAILURE_EMAIL_SUB</t>
   </si>
   <si>
@@ -1109,18 +867,12 @@
     <t>UIN Update Request Placed Successfully Email</t>
   </si>
   <si>
-    <t>Hi $fullName_fra, Your request for "UIN Update" has been successfully placed. Your RID (Req Number) is $RID for tracking. Thank You!</t>
-  </si>
-  <si>
     <t>RS_UIN_UPDATE_SUCCESS_EMAIL</t>
   </si>
   <si>
     <t>UIN Update Request Placed Successfully Email Subject</t>
   </si>
   <si>
-    <t>UIN Update Request Placed Successfully</t>
-  </si>
-  <si>
     <t>RS_UIN_UPDATE_SUCCESS_EMAIL_SUB</t>
   </si>
   <si>
@@ -1133,18 +885,12 @@
     <t>UIN Update Request Failed Email</t>
   </si>
   <si>
-    <t>Hi $fullName_fra, We were unable to process your "UIN Update" request. Please try again later. Thank You!</t>
-  </si>
-  <si>
     <t>RS_UIN_UPDATE_FAILURE_EMAIL</t>
   </si>
   <si>
     <t>UIN Update Request Failed Email Subject</t>
   </si>
   <si>
-    <t>UIN Update Request Failed</t>
-  </si>
-  <si>
     <t>RS_UIN_UPDATE_FAILURE_EMAIL_SUB</t>
   </si>
   <si>
@@ -1157,9 +903,6 @@
     <t>Credential Issuance Success SMS</t>
   </si>
   <si>
-    <t>Hi $!fullName, We have received a request for $!credentialName from $!partnerName. The request id for the same is $!RID and your encryption key is $!encryptionKey. This request is under processing. Thank You</t>
-  </si>
-  <si>
     <t>RS_CRE_REQ_SUCCESS_SMS</t>
   </si>
   <si>
@@ -1172,9 +915,6 @@
     <t>Credential Issuance Success EMAIL Subject</t>
   </si>
   <si>
-    <t>Credential Issuance Confirmation</t>
-  </si>
-  <si>
     <t>RS_CRE_REQ_SUCCESS_EMAIL_SUB</t>
   </si>
   <si>
@@ -1196,45 +936,30 @@
     <t>Credential Issuance Status Check EMAIL Subject</t>
   </si>
   <si>
-    <t>Credential Issuance Status</t>
-  </si>
-  <si>
     <t>RS_CRE_STATUS_EMAIL_SUB</t>
   </si>
   <si>
     <t>Credential Request Cancel Success SMS</t>
   </si>
   <si>
-    <t>Hi $!fullName, Your credential request with request id $!RID has been successfully cancelled. Thank You</t>
-  </si>
-  <si>
     <t>RS_CRE_CANCEL_SUCCESS_SMS</t>
   </si>
   <si>
     <t>Credential Request Cancel Success EMAIL</t>
   </si>
   <si>
-    <t>Hi $!fullName, Your credential request with request id $RID has been successfully cancelled. Thank You</t>
-  </si>
-  <si>
     <t>RS_CRE_CANCEL_SUCCESS_EMAIL</t>
   </si>
   <si>
     <t>Credential Request Cancel Success EMAIL Subject</t>
   </si>
   <si>
-    <t>Credential Request is cancelled successfully</t>
-  </si>
-  <si>
     <t>RS_CRE_CANCEL_SUCCESS_EMAIL_SUB</t>
   </si>
   <si>
     <t>Credential Issuance Failure SMS</t>
   </si>
   <si>
-    <t>Hi $!fullName, We have received a request for $!credentialName from $!partnerName. The request id for the same is $!RID. The request could not be processed. Please try again later. Thank You</t>
-  </si>
-  <si>
     <t>RS_CRE_REQ_FAILURE_SMS</t>
   </si>
   <si>
@@ -1247,17 +972,299 @@
     <t>Credential Issuance Failure EMAIL Subject</t>
   </si>
   <si>
-    <t>Credential Issuance Failed</t>
-  </si>
-  <si>
     <t>RS_CRE_REQ_FAILURE_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Cher $name, votre Authentification $idvidType $idvid utilisant $authType le $date à $time Hrs $status sur un appareil déployé par les services MOSIP</t>
+  </si>
+  <si>
+    <t>$idvidType $idvid Authentification $status</t>
+  </si>
+  <si>
+    <t>Votre Authentification $idvidType $idvid utilisant $authType le $date à $time Hrs $status sur un appareil déployé par les services MOSIP</t>
+  </si>
+  <si>
+    <t>Veuillez trouver l'OTP $otp</t>
+  </si>
+  <si>
+    <t>Veuillez trouver l'otp $otp</t>
+  </si>
+  <si>
+    <t>Message OTP</t>
+  </si>
+  <si>
+    <t>Cher $name l'OTP pour $idvidType $idvid est $otp qui sera valide pour $validTime minutes. (Généré le $date à $time Hrs)</t>
+  </si>
+  <si>
+    <t>$idvidType $idvid: Demande OTP</t>
+  </si>
+  <si>
+    <t>OTP pour $idvidType $idvid est $otp qui sera valide pour $validTime minutes. (Généré le $date à $time Hrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cher $name, Votre Pré-inscription pour le NIU a été effectué avec succès le $Date à $Time. Votre ID est #$PRID. Votre rendez-vous est programmé le $Appointmentdate à $Appointmenttime .\r\ndans le centre d'enregistrement $RegistrationCenterName à l'adresse $RegistrationCenterAddress. Vous recevrez aussi les détails sur le numéro de mobile enregistré. </t>
+  </si>
+  <si>
+    <t>1. Instruction 1 2. Instruction  2 3. Instruction 3 4.Instruction  4 5. Instruction  5 6. Instruction  6 7. Instruction  7 8. Instruction  8 9. Instruction  9 10. Instruction  10</t>
+  </si>
+  <si>
+    <t>Cher $name, votre OTP pour la pré-inscription $PRID est $otp, valide pour  $validTime minutes. (Géneré le $date à $time Hrs)</t>
+  </si>
+  <si>
+    <t>Pré-Inscription $PRID: Demande OTP</t>
+  </si>
+  <si>
+    <t>Votre OTP pour la pré-inscription $PRID est $otp, valide pour  $validTime minutes. (Géneré le $date à $time Hrs)</t>
+  </si>
+  <si>
+    <t>Votre pré-inscripition pour le NIU a été effectué avec succès le $Date à $Time. Votre ID est  #$PRID. Votre rendez-vous est programmé pour le $Appointmentdate à $Appointmenttime. Vous recevrez aussi les détails sur votre adresse mail enregistré.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je comprends que mes données collectées pendant la pré-inscription par l'autorité concernée sont mon : - Nom; - Date de naissance; - Genre; - Adresse; - Contacts; - Documents. Je comprends que ces informations seront stockées et traitées dans le but de vérifier mon identité afin d'accéder  divers services, ou pour être conforme aux obligations légales. Je donnée mon concentement pour la collecte de mes données dans ce but. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cher $name, Votre rendez-vous pour votre enregistrement, $PRID prévu le, $Appointmentdate $Appointmenttime a été annulé suite à un jour non travaillé exceptionnel des services du gouvernement concernés. Veuillez prendre un autre rendez-vous pour vous enregistrer. </t>
+  </si>
+  <si>
+    <t>Rendez-vous annulé : Pré-inscription $PRID</t>
+  </si>
+  <si>
+    <t>Cher $name, nous vous remercions de vous être inscrit sur la plateforme numérique de l'identité. Votre identifiant d'inscription est $RegistrationID. En cas de modification des détails de vos données d'inscription, veuillez contacter le centre d'enregistrement dans un délai de 4 jours.</t>
+  </si>
+  <si>
+    <t>Confirmation de l'inscription</t>
+  </si>
+  <si>
+    <t>Cher $name, nous vous remercions de vous être inscrit sur la plateforme numérique de l'identité. Votre identifiant d'inscription est $RegistrationID. En cas de correction des détails de vos données d'inscription, veuillez contacter le centre d'enregistrement dans un délai de 4 jours.</t>
+  </si>
+  <si>
+    <t>Cher $name, l'OTP pour l'utilisateur $username est $otp et est valide pour $validTime minutes (Généré le $date à $time hrs).</t>
+  </si>
+  <si>
+    <t>Mot de passe unique pour la plateforme numérique de l'identité</t>
+  </si>
+  <si>
+    <t>Cher $name, merci d'avoir mis à  jour vos détails sur la plateforme numérique de l'identité. Votre identifiant d'enregistrement est $RegistrationID. En cas de modification des détails de vos données d'inscription, veuillez contacter le centre d'enregistrement dans un délai de 4 jours.</t>
+  </si>
+  <si>
+    <t>Confirmation de mise à jour de l'inscription.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;title&gt;Consent&lt;/title&gt;&lt;/head&gt;&lt;body&gt;&lt;div&gt;Je comprends que mes données collectées pendant la pré-inscription par l'autorité concernée sont mon &lt;br&gt;&lt;br&gt;&amp;#x2022 Nom &lt;br&gt; &amp;#x2022 Date de naissance &lt;br&gt; &amp;#x2022 Genre &lt;br&gt; &amp;#x2022 Adresse &lt;br&gt; &amp;#x2022 Contacts &lt;br&gt; &amp;#x2022 Documents&lt;br&gt; &amp;#x2022 Biométrie &lt;br&gt; &lt;br&gt;Je comprends que ces informations seront stockées et traitées dans le but de vérifier mon identité afin d'accéder  divers services, ou pour être conforme aux obligations légales. Je donnée mon concentement pour la collecte de mes données dans ce but. &lt;/div&gt;&lt;/body&gt;&lt;/html&gt;
+</t>
+  </si>
+  <si>
+    <t>Cher $!name_eng, Votre demande de NIU pour l'inscription : $!RID a échoué car un NIU doublon correspondant à vos détails  a été trouvé. Veuillez vous approcher de votre Centre d'Enregistrement le plus proche. Merci</t>
+  </si>
+  <si>
+    <t>Cher $!name_eng, Votre demande de NIU pour l'inscription : $!RID a échoué suite à problème technique. PVeuillez vous approcher de votre Centre d'Enregistrement le plus proche. Merci</t>
+  </si>
+  <si>
+    <t>Cher $name_eng, Votre NIU pour l'inscription ID: $!RID a été généré avec succès. Merci.</t>
+  </si>
+  <si>
+    <t>Cher $!name_eng, les détails correspondant au NIU de votre inscription ID: $!RID a été mis à jour. Merci</t>
+  </si>
+  <si>
+    <t>Cher $!name_eng, votre NIU a été desactivé. Si vous avez des remarques, veuillez approcher le centre d'enregistrement le plus proche. Merci</t>
+  </si>
+  <si>
+    <t>Cher $!name_eng, votre NIU a été réactivé. Si vous avez des remarques, veuillez approcher le centre d'enregistrement le plus proche. Merci</t>
+  </si>
+  <si>
+    <t>Cher $name_eng,Votre NIU a été trouvé. Vous recevrez votre carte NIU à l'adresse enregistrée.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonjour $!name_eng, Nous avons reçu votre demande d'inscription pour l'ID : $!RID. Votre demande est en cours de traitement. Merci </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonjour $!name_eng, Nous avons reçu la demande de mise à jour de vos données pour l'ID : $!RID. Votre demande est en cours de traitement. Merci </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonjour $!name_eng, Nous avons reçu la demande de recherche de vos données de NIU pour l'ID : $!RID. Votre demande est en cours de traitement. Merci </t>
+  </si>
+  <si>
+    <t>Bonjour $!name_eng, Nous avons reçu la demande de réimpression de votre NIU pour l'ID : $!RID. Votre demande est en cours de traitement. Merci</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_eng, Nous avons reçu la demande d'activation de votre NIU pour l'ID : $!RID. Votre demande est en cours de traitement. Merci</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_eng, Nous avons reçu la demande de désactivation de votre NIU pour l'ID : $!RID. Votre demande est en cours de traitement. Merci</t>
+  </si>
+  <si>
+    <t>Confirmation d'inscription</t>
+  </si>
+  <si>
+    <t>Confirmation de demande de modification</t>
+  </si>
+  <si>
+    <t>Confirmation de demande de recherche</t>
+  </si>
+  <si>
+    <t>Confirmation de demande de réimpression</t>
+  </si>
+  <si>
+    <t>Confirmation de demande d'activation</t>
+  </si>
+  <si>
+    <t>Confirmation de demande de désactivation</t>
+  </si>
+  <si>
+    <t>Cher $!name_eng,
+Votre demande de NIU pour l'inscription ID: $!RID est en attente car nécessite les informations complémentaires  is on hold because of requiring additional details with AdditionalInfoRequestId $!additionalInfoRequestId et additionalInfoProcess $!additionalInfoProcess. Veuillez vous approcher du centre d'enregistrement le plus proche pour faire progresse votre demande.
+Merci</t>
+  </si>
+  <si>
+    <t>L'inscription a échoué car vous êtes déjà enregistré</t>
+  </si>
+  <si>
+    <t>Veuillez vous ré-inscrire car il y a eu un problème technique</t>
+  </si>
+  <si>
+    <t>NIU a été activé avec succès</t>
+  </si>
+  <si>
+    <t>NIU a été désactivé</t>
+  </si>
+  <si>
+    <t>NIU généré</t>
+  </si>
+  <si>
+    <t>Données NIU modifiées</t>
+  </si>
+  <si>
+    <t>Détails complémentaires nécessaires pour avancer le processus de demande de NIU</t>
+  </si>
+  <si>
+    <t>Bonjour $fullName_eng, votre demande d'historique d'authentification a été traitée avec succès. Merci.</t>
+  </si>
+  <si>
+    <t>Demande d'historique d'authentification traitée avec succès</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonjour $fullName_eng, félicitations, votre demande a été traitée. Le téléchargement de votre e-NIU a été effectuée avec succès. Merci </t>
+  </si>
+  <si>
+    <t>Téléchargement e-NIU réussi</t>
+  </si>
+  <si>
+    <t>Bonjour $fullName_eng, vos AUTH type(s) demandés ont été verrouillés avec succès. Merci!</t>
+  </si>
+  <si>
+    <t>Vérouillage AUTH Type(s) réussi</t>
+  </si>
+  <si>
+    <t>Bonjour $fullName_eng, vos AUTH type(s) demandés ont été déverrouillés avec succès. Merci!</t>
+  </si>
+  <si>
+    <t>Déverouillage AUTH Type(s) réussi</t>
+  </si>
+  <si>
+    <t>Bonjour $fullName_eng, votre VID pour votre UIN a été généré avec succès. Votre VID is $VID. Merci!</t>
+  </si>
+  <si>
+    <t>Génération réussie du VID</t>
+  </si>
+  <si>
+    <t>Bonjour $fullName_eng, votre VID pour votre UIN a été desactivé avec succès. Merci!</t>
+  </si>
+  <si>
+    <t>Désactivation réussie du VID</t>
+  </si>
+  <si>
+    <t>Bonjour $fullName_eng, Votre requête "Réimpression du NIU" a été reçue. Le RID (ID de la requête) est $RID. Merci!</t>
+  </si>
+  <si>
+    <t>Réimpression réussie</t>
+  </si>
+  <si>
+    <t>Bonjour $fullName_eng, Votre demande pour les détails de votre Historique d'Authentification a échoué. Merci!</t>
+  </si>
+  <si>
+    <t>Echec récupération Historique d'Authentification</t>
+  </si>
+  <si>
+    <t>Bonjour $fullName_eng, le téléchargement de votre e-NIU a échoué. Veuillez essayer plus tard. Merci!</t>
+  </si>
+  <si>
+    <t>Echec Téléchargement e-NIU</t>
+  </si>
+  <si>
+    <t>Hi $fullName_eng, Your requested for Locking AUTH type(s) has failed. Please try again later. Thank You!</t>
+  </si>
+  <si>
+    <t>Echec Vérouillage AUTH Type(s)</t>
+  </si>
+  <si>
+    <t>Bonjour $fullName_eng, le vérouillage de vos AUTH type(s) a échoué. Veuillez réessayer plus tard. Merci!</t>
+  </si>
+  <si>
+    <t>Bonjour $fullName_eng, Votre requête "Réimpressionde la carte NIU" a échoué. Veuillez réessayer plus tard. Merci!</t>
+  </si>
+  <si>
+    <t>Echec de la réimpression</t>
+  </si>
+  <si>
+    <t>Bonjour $fullName_eng, le dévérouillage de vos AUTH type(s) a échoué. Veuillez réessayer plus tard. Merci!</t>
+  </si>
+  <si>
+    <t>Bonjour $fullName_eng, la génération du VID  pour votre NIU a échoué. Veuillez réessayer plus tard. Merci!</t>
+  </si>
+  <si>
+    <t>Echec génération du VID</t>
+  </si>
+  <si>
+    <t>Bonjour $fullName_eng, la désativation de votre $VID a échoué. Veuillez réessayer plus tard. Merci</t>
+  </si>
+  <si>
+    <t>Echec désactivation VID</t>
+  </si>
+  <si>
+    <t>Bonjour $fullName_eng, Votre requête "Mise à jour du NIU" a été reçue. Votre RID (Numéro de la Requête" est $RID pour le suivi. Merci!</t>
+  </si>
+  <si>
+    <t>Demande mise à jour du NIU reçue avec succès</t>
+  </si>
+  <si>
+    <t>Bonjour $fullName_eng, Nous n'avons pas pu traité votre demande "Mise  jour du NIU". Veuillez réessayer plus tard. Merci</t>
+  </si>
+  <si>
+    <t>Echec mise à jour NIU</t>
+  </si>
+  <si>
+    <t>Bonjour $!fullName, Nous avons reçu une demande pour $!credentialName avec $!partnerName. L'Id de la requête est $!RID et votre clé de cryptage est $!encryptionKey. Cette demande est en cours de traitement. Merci!</t>
+  </si>
+  <si>
+    <t>Bonjour $!fullName, nous avons reçu une demande pour $!credentialName avec $!partnerName. L'Id de la requête est $!RID et votre clé de cryptage est $!encryptionKey. Cette demande est en cours de traitement. Merci!</t>
+  </si>
+  <si>
+    <t>Confirmation de délivrance d'identification</t>
+  </si>
+  <si>
+    <t>Bonjour $!fullName, Le statut de traitement de votre demande de délivrance d'identification pour la requête ID $!RID est $!status. Merci!</t>
+  </si>
+  <si>
+    <t>Statut délivrance d'identification</t>
+  </si>
+  <si>
+    <t>Bonjour $!fullName, Votre demande d'identification avec la requête id $!RID a été annulé avec succès. Merci!</t>
+  </si>
+  <si>
+    <t>Annulation demande d'identification réussie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonjour $!fullName, Nous avons réussi une demande pour $!credentialName avec $!partnerName. La requête id est $!RID. La demande n'a pas pu être traitée. Veuillez réessayer plus tard. Merci </t>
+  </si>
+  <si>
+    <t>Echec délivrance d'identification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,10 +1293,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1379,30 +1390,24 @@
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF9A9A9A"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color rgb="FF9A9A9A"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF9A9A9A"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1422,15 +1427,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1747,21 +1755,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229855EC-EB4F-4B19-9CD6-EAB90768723A}">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="G146" sqref="G146"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" customWidth="1"/>
-    <col min="4" max="4" width="24.1796875" customWidth="1"/>
-    <col min="7" max="7" width="55.6328125" customWidth="1"/>
-    <col min="9" max="9" width="24.08984375" customWidth="1"/>
-    <col min="10" max="10" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +1810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="53.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1101</v>
       </c>
@@ -1821,29 +1829,29 @@
       <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
+      <c r="G2" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="H2" s="3">
         <v>10004</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="K2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1102</v>
       </c>
@@ -1851,10 +1859,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>15</v>
@@ -1862,29 +1870,29 @@
       <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>23</v>
+      <c r="G3" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="H3" s="3">
         <v>10004</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K3" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="46.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1103</v>
       </c>
@@ -1892,10 +1900,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
@@ -1903,70 +1911,70 @@
       <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>26</v>
+      <c r="G4" s="8" t="s">
+        <v>318</v>
       </c>
       <c r="H4" s="3">
         <v>10004</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>31</v>
+      <c r="G5" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="H5" s="3">
         <v>10004</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K5" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="33.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>1148</v>
       </c>
@@ -1974,10 +1982,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>15</v>
@@ -1985,29 +1993,29 @@
       <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>35</v>
+      <c r="G6" s="8" t="s">
+        <v>320</v>
       </c>
       <c r="H6" s="3">
         <v>10004</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K6" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="36.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>1149</v>
       </c>
@@ -2015,10 +2023,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
@@ -2026,29 +2034,29 @@
       <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>38</v>
+      <c r="G7" s="8" t="s">
+        <v>321</v>
       </c>
       <c r="H7" s="3">
         <v>10004</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K7" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="45.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>1150</v>
       </c>
@@ -2056,10 +2064,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>15</v>
@@ -2067,29 +2075,29 @@
       <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>35</v>
+      <c r="G8" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="H8" s="3">
         <v>10004</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K8" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>1151</v>
       </c>
@@ -2097,10 +2105,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>15</v>
@@ -2108,29 +2116,29 @@
       <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>42</v>
+      <c r="G9" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="H9" s="3">
         <v>10004</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K9" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>1152</v>
       </c>
@@ -2138,10 +2146,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>15</v>
@@ -2149,29 +2157,29 @@
       <c r="F10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>45</v>
+      <c r="G10" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="H10" s="3">
         <v>10004</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K10" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>1153</v>
       </c>
@@ -2179,10 +2187,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>15</v>
@@ -2190,29 +2198,29 @@
       <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>48</v>
+      <c r="G11" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="H11" s="3">
         <v>10004</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K11" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>1124</v>
       </c>
@@ -2220,10 +2228,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>15</v>
@@ -2231,29 +2239,29 @@
       <c r="F12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>51</v>
+      <c r="G12" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="H12" s="3">
         <v>10001</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K12" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>1125</v>
       </c>
@@ -2261,10 +2269,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>15</v>
@@ -2272,29 +2280,29 @@
       <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>55</v>
+      <c r="G13" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="H13" s="3">
         <v>10001</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K13" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>1126</v>
       </c>
@@ -2302,10 +2310,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>15</v>
@@ -2313,29 +2321,29 @@
       <c r="F14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>58</v>
+      <c r="G14" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="H14" s="3">
         <v>10001</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K14" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="44.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>1127</v>
       </c>
@@ -2343,10 +2351,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>15</v>
@@ -2354,29 +2362,29 @@
       <c r="F15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>61</v>
+      <c r="G15" s="8" t="s">
+        <v>328</v>
       </c>
       <c r="H15" s="3">
         <v>10001</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K15" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>1128</v>
       </c>
@@ -2384,10 +2392,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
@@ -2395,29 +2403,29 @@
       <c r="F16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>64</v>
+      <c r="G16" s="8" t="s">
+        <v>329</v>
       </c>
       <c r="H16" s="3">
         <v>10001</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K16" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>1129</v>
       </c>
@@ -2425,10 +2433,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>15</v>
@@ -2436,29 +2444,29 @@
       <c r="F17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>66</v>
+      <c r="G17" s="8" t="s">
+        <v>330</v>
       </c>
       <c r="H17" s="3">
         <v>10001</v>
       </c>
       <c r="I17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="K17" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>1130</v>
       </c>
@@ -2466,10 +2474,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>15</v>
@@ -2477,40 +2485,40 @@
       <c r="F18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>69</v>
+      <c r="G18" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="H18" s="3">
         <v>10001</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K18" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>15</v>
@@ -2518,29 +2526,29 @@
       <c r="F19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>31</v>
+      <c r="G19" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="H19" s="3">
         <v>10001</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K19" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>1142</v>
       </c>
@@ -2548,10 +2556,10 @@
         <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>15</v>
@@ -2559,29 +2567,29 @@
       <c r="F20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>35</v>
+      <c r="G20" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="H20" s="3">
         <v>10001</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K20" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>1143</v>
       </c>
@@ -2589,10 +2597,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>15</v>
@@ -2600,29 +2608,29 @@
       <c r="F21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>38</v>
+      <c r="G21" s="8" t="s">
+        <v>321</v>
       </c>
       <c r="H21" s="3">
         <v>10001</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K21" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>1144</v>
       </c>
@@ -2630,10 +2638,10 @@
         <v>13</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>15</v>
@@ -2641,29 +2649,29 @@
       <c r="F22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>35</v>
+      <c r="G22" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="H22" s="3">
         <v>10001</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K22" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>1154</v>
       </c>
@@ -2671,10 +2679,10 @@
         <v>13</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>15</v>
@@ -2682,29 +2690,29 @@
       <c r="F23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>73</v>
+      <c r="G23" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="H23" s="3">
         <v>10001</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="K23" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>1159</v>
       </c>
@@ -2712,10 +2720,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>15</v>
@@ -2723,29 +2731,29 @@
       <c r="F24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>76</v>
+      <c r="G24" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="H24" s="3">
         <v>10001</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="K24" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>1281</v>
       </c>
@@ -2753,10 +2761,10 @@
         <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>15</v>
@@ -2764,29 +2772,29 @@
       <c r="F25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>79</v>
+      <c r="G25" s="8" t="s">
+        <v>333</v>
       </c>
       <c r="H25" s="6">
         <v>10001</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K25" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>1115</v>
       </c>
@@ -2794,10 +2802,10 @@
         <v>13</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>15</v>
@@ -2805,29 +2813,29 @@
       <c r="F26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="8">
+      <c r="G26" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="H26" s="7">
         <v>10002</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="K26" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>1116</v>
       </c>
@@ -2835,10 +2843,10 @@
         <v>13</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>15</v>
@@ -2846,29 +2854,29 @@
       <c r="F27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="8">
+      <c r="G27" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="H27" s="7">
         <v>10002</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="K27" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>1117</v>
       </c>
@@ -2876,10 +2884,10 @@
         <v>13</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>15</v>
@@ -2887,29 +2895,29 @@
       <c r="F28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" s="8">
+      <c r="G28" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="H28" s="7">
         <v>10002</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="K28" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>1118</v>
       </c>
@@ -2917,10 +2925,10 @@
         <v>13</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>15</v>
@@ -2928,29 +2936,29 @@
       <c r="F29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="8">
+      <c r="G29" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="H29" s="7">
         <v>10002</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="K29" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>1119</v>
       </c>
@@ -2958,10 +2966,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>15</v>
@@ -2969,29 +2977,29 @@
       <c r="F30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H30" s="8">
+      <c r="G30" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="H30" s="7">
         <v>10002</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="K30" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>1120</v>
       </c>
@@ -2999,10 +3007,10 @@
         <v>13</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>15</v>
@@ -3010,29 +3018,29 @@
       <c r="F31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="8">
+      <c r="G31" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="H31" s="7">
         <v>10002</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="K31" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>1121</v>
       </c>
@@ -3040,10 +3048,10 @@
         <v>13</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>15</v>
@@ -3051,29 +3059,29 @@
       <c r="F32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H32" s="8">
+      <c r="G32" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H32" s="7">
         <v>10002</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="K32" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>1122</v>
       </c>
@@ -3081,10 +3089,10 @@
         <v>13</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>
@@ -3092,29 +3100,29 @@
       <c r="F33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H33" s="8">
+      <c r="G33" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H33" s="7">
         <v>10002</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K33" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>1123</v>
       </c>
@@ -3122,10 +3130,10 @@
         <v>13</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>15</v>
@@ -3133,29 +3141,29 @@
       <c r="F34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H34" s="8">
+      <c r="G34" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H34" s="7">
         <v>10002</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K34" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>1145</v>
       </c>
@@ -3163,10 +3171,10 @@
         <v>13</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>15</v>
@@ -3174,29 +3182,29 @@
       <c r="F35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" s="8">
+      <c r="G35" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H35" s="7">
         <v>10002</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K35" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>1146</v>
       </c>
@@ -3204,10 +3212,10 @@
         <v>13</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>15</v>
@@ -3215,29 +3223,29 @@
       <c r="F36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="8">
+      <c r="G36" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="H36" s="7">
         <v>10002</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K36" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>1147</v>
       </c>
@@ -3245,10 +3253,10 @@
         <v>13</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>15</v>
@@ -3256,29 +3264,29 @@
       <c r="F37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" s="8">
+      <c r="G37" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H37" s="7">
         <v>10002</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K37" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>1250</v>
       </c>
@@ -3286,10 +3294,10 @@
         <v>13</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>15</v>
@@ -3297,29 +3305,29 @@
       <c r="F38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" s="8">
+      <c r="G38" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" s="7">
         <v>10002</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K38" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>1253</v>
       </c>
@@ -3327,10 +3335,10 @@
         <v>13</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>15</v>
@@ -3338,29 +3346,29 @@
       <c r="F39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H39" s="8">
+      <c r="G39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="7">
         <v>10002</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="K39" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>1260</v>
       </c>
@@ -3368,10 +3376,10 @@
         <v>13</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>15</v>
@@ -3379,29 +3387,29 @@
       <c r="F40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H40" s="8">
+      <c r="G40" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="7">
         <v>10002</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="K40" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>1269</v>
       </c>
@@ -3409,10 +3417,10 @@
         <v>13</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>15</v>
@@ -3420,29 +3428,29 @@
       <c r="F41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H41" s="8">
+      <c r="G41" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="H41" s="7">
         <v>10002</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K41" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>1107</v>
       </c>
@@ -3450,10 +3458,10 @@
         <v>13</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>15</v>
@@ -3461,29 +3469,29 @@
       <c r="F42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>122</v>
+      <c r="G42" s="8" t="s">
+        <v>342</v>
       </c>
       <c r="H42" s="3">
         <v>10003</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="K42" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>1108</v>
       </c>
@@ -3491,10 +3499,10 @@
         <v>13</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>15</v>
@@ -3502,29 +3510,29 @@
       <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>126</v>
+      <c r="G43" s="8" t="s">
+        <v>342</v>
       </c>
       <c r="H43" s="3">
         <v>10003</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="K43" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="392" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>1109</v>
       </c>
@@ -3532,10 +3540,10 @@
         <v>13</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>15</v>
@@ -3543,29 +3551,29 @@
       <c r="F44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>129</v>
+      <c r="G44" s="8" t="s">
+        <v>343</v>
       </c>
       <c r="H44" s="3">
         <v>10003</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="K44" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="377.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>1110</v>
       </c>
@@ -3573,10 +3581,10 @@
         <v>13</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>15</v>
@@ -3584,29 +3592,29 @@
       <c r="F45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>132</v>
+      <c r="G45" s="8" t="s">
+        <v>343</v>
       </c>
       <c r="H45" s="3">
         <v>10003</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="K45" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="305" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>1111</v>
       </c>
@@ -3614,10 +3622,10 @@
         <v>13</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>15</v>
@@ -3625,29 +3633,29 @@
       <c r="F46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>135</v>
+      <c r="G46" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="H46" s="3">
         <v>10003</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="K46" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="276" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>1112</v>
       </c>
@@ -3655,10 +3663,10 @@
         <v>13</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>15</v>
@@ -3666,29 +3674,29 @@
       <c r="F47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>138</v>
+      <c r="G47" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="H47" s="3">
         <v>10003</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="K47" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="363" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>1113</v>
       </c>
@@ -3696,10 +3704,10 @@
         <v>13</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>15</v>
@@ -3707,29 +3715,29 @@
       <c r="F48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>141</v>
+      <c r="G48" s="8" t="s">
+        <v>345</v>
       </c>
       <c r="H48" s="3">
         <v>10003</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="K48" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="334" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>1114</v>
       </c>
@@ -3737,10 +3745,10 @@
         <v>13</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>15</v>
@@ -3748,29 +3756,29 @@
       <c r="F49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>144</v>
+      <c r="G49" s="8" t="s">
+        <v>345</v>
       </c>
       <c r="H49" s="3">
         <v>10003</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="K49" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>1131</v>
       </c>
@@ -3778,40 +3786,40 @@
         <v>13</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>148</v>
+      <c r="G50" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="H50" s="3">
         <v>10003</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="K50" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>1132</v>
       </c>
@@ -3819,10 +3827,10 @@
         <v>13</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>15</v>
@@ -3830,29 +3838,29 @@
       <c r="F51" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>151</v>
+      <c r="G51" s="8" t="s">
+        <v>346</v>
       </c>
       <c r="H51" s="3">
         <v>10003</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="K51" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>1133</v>
       </c>
@@ -3860,10 +3868,10 @@
         <v>13</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>15</v>
@@ -3871,29 +3879,29 @@
       <c r="F52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>154</v>
+      <c r="G52" s="8" t="s">
+        <v>346</v>
       </c>
       <c r="H52" s="3">
         <v>10003</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="K52" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>1134</v>
       </c>
@@ -3901,10 +3909,10 @@
         <v>13</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>15</v>
@@ -3912,29 +3920,29 @@
       <c r="F53" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>157</v>
+      <c r="G53" s="8" t="s">
+        <v>347</v>
       </c>
       <c r="H53" s="3">
         <v>10003</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="K53" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>1135</v>
       </c>
@@ -3942,10 +3950,10 @@
         <v>13</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>15</v>
@@ -3953,29 +3961,29 @@
       <c r="F54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>160</v>
+      <c r="G54" s="8" t="s">
+        <v>347</v>
       </c>
       <c r="H54" s="3">
         <v>10003</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="K54" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>1160</v>
       </c>
@@ -3983,10 +3991,10 @@
         <v>13</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>15</v>
@@ -3994,29 +4002,29 @@
       <c r="F55" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>163</v>
+      <c r="G55" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="H55" s="3">
         <v>10003</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="K55" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>1161</v>
       </c>
@@ -4024,10 +4032,10 @@
         <v>13</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>15</v>
@@ -4035,29 +4043,29 @@
       <c r="F56" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>166</v>
+      <c r="G56" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="H56" s="3">
         <v>10003</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="K56" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>1162</v>
       </c>
@@ -4065,10 +4073,10 @@
         <v>13</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>15</v>
@@ -4076,29 +4084,29 @@
       <c r="F57" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>169</v>
+      <c r="G57" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="H57" s="3">
         <v>10003</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="K57" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="276" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>1211</v>
       </c>
@@ -4106,10 +4114,10 @@
         <v>13</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>15</v>
@@ -4117,29 +4125,29 @@
       <c r="F58" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>172</v>
+      <c r="G58" s="8" t="s">
+        <v>349</v>
       </c>
       <c r="H58" s="3">
         <v>10003</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="K58" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="276" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>1212</v>
       </c>
@@ -4147,10 +4155,10 @@
         <v>13</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>15</v>
@@ -4158,29 +4166,29 @@
       <c r="F59" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>172</v>
+      <c r="G59" s="8" t="s">
+        <v>349</v>
       </c>
       <c r="H59" s="3">
         <v>10003</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="K59" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>1213</v>
       </c>
@@ -4188,10 +4196,10 @@
         <v>13</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>15</v>
@@ -4199,29 +4207,29 @@
       <c r="F60" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>177</v>
+      <c r="G60" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="H60" s="3">
         <v>10003</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="K60" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>1214</v>
       </c>
@@ -4229,10 +4237,10 @@
         <v>13</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>15</v>
@@ -4240,29 +4248,29 @@
       <c r="F61" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>177</v>
+      <c r="G61" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="H61" s="3">
         <v>10003</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="K61" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>1215</v>
       </c>
@@ -4270,10 +4278,10 @@
         <v>13</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>15</v>
@@ -4281,29 +4289,29 @@
       <c r="F62" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>182</v>
+      <c r="G62" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="H62" s="3">
         <v>10003</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="K62" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>1216</v>
       </c>
@@ -4311,10 +4319,10 @@
         <v>13</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>15</v>
@@ -4322,29 +4330,29 @@
       <c r="F63" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>182</v>
+      <c r="G63" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="H63" s="3">
         <v>10003</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="K63" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>1217</v>
       </c>
@@ -4352,10 +4360,10 @@
         <v>13</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>15</v>
@@ -4363,29 +4371,29 @@
       <c r="F64" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>177</v>
+      <c r="G64" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="H64" s="3">
         <v>10003</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="K64" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>1218</v>
       </c>
@@ -4393,10 +4401,10 @@
         <v>13</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>15</v>
@@ -4404,29 +4412,29 @@
       <c r="F65" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>177</v>
+      <c r="G65" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="H65" s="3">
         <v>10003</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="K65" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="276" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>1219</v>
       </c>
@@ -4434,10 +4442,10 @@
         <v>13</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>15</v>
@@ -4445,29 +4453,29 @@
       <c r="F66" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>191</v>
+      <c r="G66" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="H66" s="3">
         <v>10003</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="K66" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="276" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>1220</v>
       </c>
@@ -4475,10 +4483,10 @@
         <v>13</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>15</v>
@@ -4486,29 +4494,29 @@
       <c r="F67" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>191</v>
+      <c r="G67" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="H67" s="3">
         <v>10003</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="K67" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>1221</v>
       </c>
@@ -4516,10 +4524,10 @@
         <v>13</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>15</v>
@@ -4527,29 +4535,29 @@
       <c r="F68" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>196</v>
+      <c r="G68" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="H68" s="3">
         <v>10003</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="K68" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>1222</v>
       </c>
@@ -4557,10 +4565,10 @@
         <v>13</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>15</v>
@@ -4568,29 +4576,29 @@
       <c r="F69" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>196</v>
+      <c r="G69" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="H69" s="3">
         <v>10003</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="K69" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>1223</v>
       </c>
@@ -4598,10 +4606,10 @@
         <v>13</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>15</v>
@@ -4609,29 +4617,29 @@
       <c r="F70" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>201</v>
+      <c r="G70" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="H70" s="3">
         <v>10003</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="K70" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>1224</v>
       </c>
@@ -4639,10 +4647,10 @@
         <v>13</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>15</v>
@@ -4650,29 +4658,29 @@
       <c r="F71" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>201</v>
+      <c r="G71" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="H71" s="3">
         <v>10003</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="K71" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>1225</v>
       </c>
@@ -4680,10 +4688,10 @@
         <v>13</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>15</v>
@@ -4691,29 +4699,29 @@
       <c r="F72" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>206</v>
+      <c r="G72" s="8" t="s">
+        <v>355</v>
       </c>
       <c r="H72" s="3">
         <v>10003</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="K72" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>1226</v>
       </c>
@@ -4721,10 +4729,10 @@
         <v>13</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>15</v>
@@ -4732,29 +4740,29 @@
       <c r="F73" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>209</v>
+      <c r="G73" s="8" t="s">
+        <v>356</v>
       </c>
       <c r="H73" s="3">
         <v>10003</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="K73" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>1227</v>
       </c>
@@ -4762,10 +4770,10 @@
         <v>13</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>15</v>
@@ -4773,29 +4781,29 @@
       <c r="F74" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G74" s="4" t="s">
-        <v>212</v>
+      <c r="G74" s="8" t="s">
+        <v>357</v>
       </c>
       <c r="H74" s="3">
         <v>10003</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="K74" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>1228</v>
       </c>
@@ -4803,10 +4811,10 @@
         <v>13</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>15</v>
@@ -4814,29 +4822,29 @@
       <c r="F75" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>215</v>
+      <c r="G75" s="8" t="s">
+        <v>358</v>
       </c>
       <c r="H75" s="3">
         <v>10003</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="K75" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>1229</v>
       </c>
@@ -4844,10 +4852,10 @@
         <v>13</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>15</v>
@@ -4855,29 +4863,29 @@
       <c r="F76" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>209</v>
+      <c r="G76" s="8" t="s">
+        <v>356</v>
       </c>
       <c r="H76" s="3">
         <v>10003</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="K76" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>1230</v>
       </c>
@@ -4885,10 +4893,10 @@
         <v>13</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>15</v>
@@ -4896,29 +4904,29 @@
       <c r="F77" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>220</v>
+      <c r="G77" s="8" t="s">
+        <v>359</v>
       </c>
       <c r="H77" s="3">
         <v>10003</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="K77" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>1231</v>
       </c>
@@ -4926,10 +4934,10 @@
         <v>13</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>15</v>
@@ -4937,29 +4945,29 @@
       <c r="F78" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G78" s="4" t="s">
-        <v>223</v>
+      <c r="G78" s="8" t="s">
+        <v>360</v>
       </c>
       <c r="H78" s="3">
         <v>10003</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="K78" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>1272</v>
       </c>
@@ -4967,10 +4975,10 @@
         <v>13</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>15</v>
@@ -4978,29 +4986,29 @@
       <c r="F79" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>226</v>
+      <c r="G79" s="9" t="s">
+        <v>361</v>
       </c>
       <c r="H79" s="3">
         <v>10003</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="K79" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>1273</v>
       </c>
@@ -5008,10 +5016,10 @@
         <v>13</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>15</v>
@@ -5019,27 +5027,27 @@
       <c r="F80" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G80" s="9"/>
+      <c r="G80" s="12"/>
       <c r="H80" s="3">
         <v>10003</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="K80" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>1274</v>
       </c>
@@ -5047,10 +5055,10 @@
         <v>13</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>15</v>
@@ -5058,29 +5066,29 @@
       <c r="F81" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>230</v>
+      <c r="G81" s="8" t="s">
+        <v>362</v>
       </c>
       <c r="H81" s="3">
         <v>10003</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="K81" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>1275</v>
       </c>
@@ -5088,10 +5096,10 @@
         <v>13</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>232</v>
+        <v>180</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>232</v>
+        <v>180</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>15</v>
@@ -5099,29 +5107,29 @@
       <c r="F82" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>232</v>
+      <c r="G82" s="8" t="s">
+        <v>363</v>
       </c>
       <c r="H82" s="3">
         <v>10003</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>233</v>
+        <v>181</v>
       </c>
       <c r="K82" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>1276</v>
       </c>
@@ -5129,10 +5137,10 @@
         <v>13</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>15</v>
@@ -5140,29 +5148,29 @@
       <c r="F83" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G83" s="4" t="s">
-        <v>234</v>
+      <c r="G83" s="8" t="s">
+        <v>364</v>
       </c>
       <c r="H83" s="3">
         <v>10003</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="K83" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>1277</v>
       </c>
@@ -5170,10 +5178,10 @@
         <v>13</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>15</v>
@@ -5181,29 +5189,29 @@
       <c r="F84" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>236</v>
+      <c r="G84" s="8" t="s">
+        <v>365</v>
       </c>
       <c r="H84" s="3">
         <v>10003</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="K84" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>1278</v>
       </c>
@@ -5211,10 +5219,10 @@
         <v>13</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>15</v>
@@ -5222,29 +5230,29 @@
       <c r="F85" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>238</v>
+      <c r="G85" s="8" t="s">
+        <v>366</v>
       </c>
       <c r="H85" s="3">
         <v>10003</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="K85" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>1279</v>
       </c>
@@ -5252,10 +5260,10 @@
         <v>13</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>15</v>
@@ -5263,29 +5271,29 @@
       <c r="F86" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>240</v>
+      <c r="G86" s="8" t="s">
+        <v>367</v>
       </c>
       <c r="H86" s="3">
         <v>10003</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="K86" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>1280</v>
       </c>
@@ -5293,10 +5301,10 @@
         <v>13</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>15</v>
@@ -5304,29 +5312,29 @@
       <c r="F87" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G87" s="4" t="s">
-        <v>242</v>
+      <c r="G87" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="H87" s="3">
         <v>10003</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="K87" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>1163</v>
       </c>
@@ -5334,10 +5342,10 @@
         <v>13</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>15</v>
@@ -5345,29 +5353,29 @@
       <c r="F88" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>245</v>
+      <c r="G88" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="H88" s="3">
         <v>10006</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="K88" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>1164</v>
       </c>
@@ -5375,10 +5383,10 @@
         <v>13</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>15</v>
@@ -5386,29 +5394,29 @@
       <c r="F89" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>245</v>
+      <c r="G89" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="H89" s="3">
         <v>10006</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="K89" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="24.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>1165</v>
       </c>
@@ -5416,10 +5424,10 @@
         <v>13</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>15</v>
@@ -5427,29 +5435,29 @@
       <c r="F90" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G90" s="4" t="s">
-        <v>251</v>
+      <c r="G90" s="8" t="s">
+        <v>370</v>
       </c>
       <c r="H90" s="3">
         <v>10006</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="K90" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>1166</v>
       </c>
@@ -5457,10 +5465,10 @@
         <v>13</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>15</v>
@@ -5468,29 +5476,29 @@
       <c r="F91" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>254</v>
+      <c r="G91" s="8" t="s">
+        <v>371</v>
       </c>
       <c r="H91" s="3">
         <v>10006</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="K91" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>1167</v>
       </c>
@@ -5498,10 +5506,10 @@
         <v>13</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>15</v>
@@ -5509,29 +5517,29 @@
       <c r="F92" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G92" s="4" t="s">
-        <v>258</v>
+      <c r="G92" s="8" t="s">
+        <v>372</v>
       </c>
       <c r="H92" s="3">
         <v>10006</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>259</v>
+        <v>203</v>
       </c>
       <c r="K92" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>1168</v>
       </c>
@@ -5539,10 +5547,10 @@
         <v>13</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>15</v>
@@ -5550,29 +5558,29 @@
       <c r="F93" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G93" s="4" t="s">
-        <v>254</v>
+      <c r="G93" s="8" t="s">
+        <v>371</v>
       </c>
       <c r="H93" s="3">
         <v>10006</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="K93" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="38.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="38.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>1169</v>
       </c>
@@ -5580,10 +5588,10 @@
         <v>13</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>15</v>
@@ -5591,29 +5599,29 @@
       <c r="F94" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G94" s="4" t="s">
-        <v>263</v>
+      <c r="G94" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="H94" s="3">
         <v>10006</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="K94" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>1170</v>
       </c>
@@ -5621,10 +5629,10 @@
         <v>13</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>15</v>
@@ -5632,29 +5640,29 @@
       <c r="F95" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G95" s="4" t="s">
-        <v>266</v>
+      <c r="G95" s="8" t="s">
+        <v>374</v>
       </c>
       <c r="H95" s="3">
         <v>10006</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="K95" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="48.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>1171</v>
       </c>
@@ -5662,10 +5670,10 @@
         <v>13</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>15</v>
@@ -5673,29 +5681,29 @@
       <c r="F96" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>263</v>
+      <c r="G96" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="H96" s="3">
         <v>10006</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="K96" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>1172</v>
       </c>
@@ -5703,10 +5711,10 @@
         <v>13</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>15</v>
@@ -5714,29 +5722,29 @@
       <c r="F97" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G97" s="4" t="s">
-        <v>271</v>
+      <c r="G97" s="8" t="s">
+        <v>375</v>
       </c>
       <c r="H97" s="3">
         <v>10006</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="K97" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="47.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>1173</v>
       </c>
@@ -5744,10 +5752,10 @@
         <v>13</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>15</v>
@@ -5755,29 +5763,29 @@
       <c r="F98" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G98" s="4" t="s">
-        <v>274</v>
+      <c r="G98" s="8" t="s">
+        <v>376</v>
       </c>
       <c r="H98" s="3">
         <v>10006</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="K98" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="44.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>1174</v>
       </c>
@@ -5785,10 +5793,10 @@
         <v>13</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>15</v>
@@ -5796,29 +5804,29 @@
       <c r="F99" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G99" s="4" t="s">
-        <v>271</v>
+      <c r="G99" s="8" t="s">
+        <v>375</v>
       </c>
       <c r="H99" s="3">
         <v>10006</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="K99" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>1175</v>
       </c>
@@ -5826,10 +5834,10 @@
         <v>13</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>15</v>
@@ -5837,29 +5845,29 @@
       <c r="F100" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G100" s="4" t="s">
-        <v>279</v>
+      <c r="G100" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="H100" s="3">
         <v>10006</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="K100" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="33.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>1176</v>
       </c>
@@ -5867,10 +5875,10 @@
         <v>13</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>15</v>
@@ -5878,29 +5886,29 @@
       <c r="F101" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G101" s="4" t="s">
-        <v>282</v>
+      <c r="G101" s="8" t="s">
+        <v>378</v>
       </c>
       <c r="H101" s="3">
         <v>10006</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>283</v>
+        <v>221</v>
       </c>
       <c r="K101" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="45.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>1177</v>
       </c>
@@ -5908,10 +5916,10 @@
         <v>13</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>15</v>
@@ -5919,29 +5927,29 @@
       <c r="F102" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="4" t="s">
-        <v>279</v>
+      <c r="G102" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="H102" s="3">
         <v>10006</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="K102" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>1178</v>
       </c>
@@ -5949,10 +5957,10 @@
         <v>13</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>15</v>
@@ -5960,29 +5968,29 @@
       <c r="F103" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G103" s="4" t="s">
-        <v>287</v>
+      <c r="G103" s="8" t="s">
+        <v>379</v>
       </c>
       <c r="H103" s="3">
         <v>10006</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="K103" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>1179</v>
       </c>
@@ -5990,10 +5998,10 @@
         <v>13</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>15</v>
@@ -6001,29 +6009,29 @@
       <c r="F104" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G104" s="4" t="s">
-        <v>290</v>
+      <c r="G104" s="8" t="s">
+        <v>380</v>
       </c>
       <c r="H104" s="3">
         <v>10006</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>291</v>
+        <v>227</v>
       </c>
       <c r="K104" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="42.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>1180</v>
       </c>
@@ -6031,10 +6039,10 @@
         <v>13</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>292</v>
+        <v>228</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>292</v>
+        <v>228</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>15</v>
@@ -6042,29 +6050,29 @@
       <c r="F105" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G105" s="4" t="s">
-        <v>287</v>
+      <c r="G105" s="8" t="s">
+        <v>379</v>
       </c>
       <c r="H105" s="3">
         <v>10006</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>293</v>
+        <v>229</v>
       </c>
       <c r="K105" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>1181</v>
       </c>
@@ -6072,10 +6080,10 @@
         <v>13</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>15</v>
@@ -6083,29 +6091,29 @@
       <c r="F106" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G106" s="4" t="s">
-        <v>295</v>
+      <c r="G106" s="8" t="s">
+        <v>381</v>
       </c>
       <c r="H106" s="3">
         <v>10006</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="K106" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M106" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>1182</v>
       </c>
@@ -6113,10 +6121,10 @@
         <v>13</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>297</v>
+        <v>232</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>297</v>
+        <v>232</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>15</v>
@@ -6124,29 +6132,29 @@
       <c r="F107" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G107" s="4" t="s">
-        <v>298</v>
+      <c r="G107" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="H107" s="3">
         <v>10006</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="K107" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="1.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="1.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>1183</v>
       </c>
@@ -6154,10 +6162,10 @@
         <v>13</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>15</v>
@@ -6165,29 +6173,29 @@
       <c r="F108" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G108" s="4" t="s">
-        <v>295</v>
+      <c r="G108" s="8" t="s">
+        <v>381</v>
       </c>
       <c r="H108" s="3">
         <v>10006</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="K108" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>1184</v>
       </c>
@@ -6195,10 +6203,10 @@
         <v>13</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>15</v>
@@ -6206,29 +6214,29 @@
       <c r="F109" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G109" s="4" t="s">
-        <v>303</v>
+      <c r="G109" s="8" t="s">
+        <v>383</v>
       </c>
       <c r="H109" s="3">
         <v>10006</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>304</v>
+        <v>237</v>
       </c>
       <c r="K109" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M109" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>1185</v>
       </c>
@@ -6236,10 +6244,10 @@
         <v>13</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>305</v>
+        <v>238</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>305</v>
+        <v>238</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>15</v>
@@ -6247,29 +6255,29 @@
       <c r="F110" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G110" s="4" t="s">
-        <v>306</v>
+      <c r="G110" s="8" t="s">
+        <v>384</v>
       </c>
       <c r="H110" s="3">
         <v>10006</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>307</v>
+        <v>239</v>
       </c>
       <c r="K110" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>1186</v>
       </c>
@@ -6277,10 +6285,10 @@
         <v>13</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>15</v>
@@ -6288,29 +6296,29 @@
       <c r="F111" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G111" s="4" t="s">
-        <v>309</v>
+      <c r="G111" s="8" t="s">
+        <v>383</v>
       </c>
       <c r="H111" s="3">
         <v>10006</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>310</v>
+        <v>241</v>
       </c>
       <c r="K111" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>1187</v>
       </c>
@@ -6318,10 +6326,10 @@
         <v>13</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>311</v>
+        <v>242</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>311</v>
+        <v>242</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>15</v>
@@ -6329,29 +6337,29 @@
       <c r="F112" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G112" s="4" t="s">
-        <v>312</v>
+      <c r="G112" s="8" t="s">
+        <v>385</v>
       </c>
       <c r="H112" s="3">
         <v>10006</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
       <c r="K112" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M112" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>1188</v>
       </c>
@@ -6359,10 +6367,10 @@
         <v>13</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>314</v>
+        <v>244</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>314</v>
+        <v>244</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>15</v>
@@ -6370,29 +6378,29 @@
       <c r="F113" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G113" s="4" t="s">
-        <v>315</v>
+      <c r="G113" s="8" t="s">
+        <v>386</v>
       </c>
       <c r="H113" s="3">
         <v>10006</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="K113" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>1189</v>
       </c>
@@ -6400,10 +6408,10 @@
         <v>13</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>317</v>
+        <v>246</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>317</v>
+        <v>246</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>15</v>
@@ -6411,29 +6419,29 @@
       <c r="F114" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G114" s="4" t="s">
-        <v>312</v>
+      <c r="G114" s="8" t="s">
+        <v>385</v>
       </c>
       <c r="H114" s="3">
         <v>10006</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>318</v>
+        <v>247</v>
       </c>
       <c r="K114" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>1190</v>
       </c>
@@ -6441,10 +6449,10 @@
         <v>13</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>319</v>
+        <v>248</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>319</v>
+        <v>248</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>15</v>
@@ -6452,29 +6460,29 @@
       <c r="F115" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G115" s="4" t="s">
-        <v>320</v>
+      <c r="G115" s="8" t="s">
+        <v>387</v>
       </c>
       <c r="H115" s="3">
         <v>10006</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="K115" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>1191</v>
       </c>
@@ -6482,10 +6490,10 @@
         <v>13</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>322</v>
+        <v>250</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>322</v>
+        <v>250</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>15</v>
@@ -6493,29 +6501,29 @@
       <c r="F116" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G116" s="4" t="s">
-        <v>323</v>
+      <c r="G116" s="8" t="s">
+        <v>388</v>
       </c>
       <c r="H116" s="3">
         <v>10006</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>324</v>
+        <v>251</v>
       </c>
       <c r="K116" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>1192</v>
       </c>
@@ -6523,10 +6531,10 @@
         <v>13</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>325</v>
+        <v>252</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>325</v>
+        <v>252</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>15</v>
@@ -6534,29 +6542,29 @@
       <c r="F117" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G117" s="4" t="s">
-        <v>320</v>
+      <c r="G117" s="8" t="s">
+        <v>389</v>
       </c>
       <c r="H117" s="3">
         <v>10006</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>326</v>
+        <v>253</v>
       </c>
       <c r="K117" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>1193</v>
       </c>
@@ -6564,10 +6572,10 @@
         <v>13</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>327</v>
+        <v>254</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>327</v>
+        <v>254</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>15</v>
@@ -6575,29 +6583,29 @@
       <c r="F118" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G118" s="4" t="s">
-        <v>328</v>
+      <c r="G118" s="8" t="s">
+        <v>390</v>
       </c>
       <c r="H118" s="3">
         <v>10006</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
       <c r="K118" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M118" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>1194</v>
       </c>
@@ -6605,10 +6613,10 @@
         <v>13</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>15</v>
@@ -6616,29 +6624,29 @@
       <c r="F119" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G119" s="4" t="s">
-        <v>331</v>
+      <c r="G119" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="H119" s="3">
         <v>10006</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>332</v>
+        <v>257</v>
       </c>
       <c r="K119" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M119" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>1195</v>
       </c>
@@ -6646,10 +6654,10 @@
         <v>13</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>15</v>
@@ -6657,29 +6665,29 @@
       <c r="F120" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G120" s="4" t="s">
-        <v>328</v>
+      <c r="G120" s="8" t="s">
+        <v>390</v>
       </c>
       <c r="H120" s="3">
         <v>10006</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>334</v>
+        <v>259</v>
       </c>
       <c r="K120" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>1196</v>
       </c>
@@ -6687,10 +6695,10 @@
         <v>13</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>335</v>
+        <v>260</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>335</v>
+        <v>260</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>15</v>
@@ -6698,29 +6706,29 @@
       <c r="F121" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G121" s="4" t="s">
-        <v>336</v>
+      <c r="G121" s="8" t="s">
+        <v>392</v>
       </c>
       <c r="H121" s="3">
         <v>10006</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>337</v>
+        <v>261</v>
       </c>
       <c r="K121" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>1197</v>
       </c>
@@ -6728,10 +6736,10 @@
         <v>13</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>15</v>
@@ -6739,29 +6747,29 @@
       <c r="F122" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G122" s="4" t="s">
-        <v>339</v>
+      <c r="G122" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="H122" s="3">
         <v>10006</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>340</v>
+        <v>264</v>
       </c>
       <c r="K122" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M122" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>1198</v>
       </c>
@@ -6769,10 +6777,10 @@
         <v>13</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>341</v>
+        <v>265</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>341</v>
+        <v>265</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>15</v>
@@ -6780,29 +6788,29 @@
       <c r="F123" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G123" s="4" t="s">
-        <v>336</v>
+      <c r="G123" s="8" t="s">
+        <v>392</v>
       </c>
       <c r="H123" s="3">
         <v>10006</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>342</v>
+        <v>266</v>
       </c>
       <c r="K123" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M123" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="42.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>1199</v>
       </c>
@@ -6810,10 +6818,10 @@
         <v>13</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>343</v>
+        <v>267</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>343</v>
+        <v>267</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>15</v>
@@ -6821,29 +6829,29 @@
       <c r="F124" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G124" s="4" t="s">
-        <v>344</v>
+      <c r="G124" s="8" t="s">
+        <v>393</v>
       </c>
       <c r="H124" s="3">
         <v>10006</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>345</v>
+        <v>268</v>
       </c>
       <c r="K124" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M124" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="47.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>1200</v>
       </c>
@@ -6851,10 +6859,10 @@
         <v>13</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>15</v>
@@ -6862,29 +6870,29 @@
       <c r="F125" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G125" s="4" t="s">
-        <v>347</v>
+      <c r="G125" s="8" t="s">
+        <v>394</v>
       </c>
       <c r="H125" s="3">
         <v>10006</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>348</v>
+        <v>270</v>
       </c>
       <c r="K125" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M125" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="48.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>1201</v>
       </c>
@@ -6892,10 +6900,10 @@
         <v>13</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>349</v>
+        <v>271</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>349</v>
+        <v>271</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>15</v>
@@ -6903,29 +6911,29 @@
       <c r="F126" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G126" s="4" t="s">
-        <v>344</v>
+      <c r="G126" s="8" t="s">
+        <v>393</v>
       </c>
       <c r="H126" s="3">
         <v>10006</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>350</v>
+        <v>272</v>
       </c>
       <c r="K126" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>1202</v>
       </c>
@@ -6933,10 +6941,10 @@
         <v>13</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>351</v>
+        <v>273</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>351</v>
+        <v>273</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>15</v>
@@ -6944,29 +6952,29 @@
       <c r="F127" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G127" s="4" t="s">
-        <v>352</v>
+      <c r="G127" s="8" t="s">
+        <v>395</v>
       </c>
       <c r="H127" s="3">
         <v>10006</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>353</v>
+        <v>274</v>
       </c>
       <c r="K127" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="45.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>1203</v>
       </c>
@@ -6974,10 +6982,10 @@
         <v>13</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>354</v>
+        <v>275</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>354</v>
+        <v>275</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>15</v>
@@ -6985,29 +6993,29 @@
       <c r="F128" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G128" s="4" t="s">
-        <v>355</v>
+      <c r="G128" s="8" t="s">
+        <v>396</v>
       </c>
       <c r="H128" s="3">
         <v>10006</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>356</v>
+        <v>276</v>
       </c>
       <c r="K128" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M128" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="45.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>1204</v>
       </c>
@@ -7015,10 +7023,10 @@
         <v>13</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>357</v>
+        <v>277</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>357</v>
+        <v>277</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>15</v>
@@ -7026,29 +7034,29 @@
       <c r="F129" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G129" s="4" t="s">
-        <v>352</v>
+      <c r="G129" s="8" t="s">
+        <v>395</v>
       </c>
       <c r="H129" s="3">
         <v>10006</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>358</v>
+        <v>278</v>
       </c>
       <c r="K129" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M129" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" ht="91" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="91.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>1205</v>
       </c>
@@ -7056,10 +7064,10 @@
         <v>13</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>359</v>
+        <v>279</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>359</v>
+        <v>279</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>15</v>
@@ -7067,29 +7075,29 @@
       <c r="F130" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G130" s="4" t="s">
-        <v>360</v>
+      <c r="G130" s="8" t="s">
+        <v>397</v>
       </c>
       <c r="H130" s="3">
         <v>10006</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>361</v>
+        <v>280</v>
       </c>
       <c r="K130" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M130" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>1206</v>
       </c>
@@ -7097,10 +7105,10 @@
         <v>13</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>362</v>
+        <v>281</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>362</v>
+        <v>281</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>15</v>
@@ -7108,29 +7116,29 @@
       <c r="F131" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G131" s="4" t="s">
-        <v>363</v>
+      <c r="G131" s="8" t="s">
+        <v>398</v>
       </c>
       <c r="H131" s="3">
         <v>10006</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>364</v>
+        <v>282</v>
       </c>
       <c r="K131" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M131" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>1207</v>
       </c>
@@ -7138,10 +7146,10 @@
         <v>13</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>365</v>
+        <v>283</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>365</v>
+        <v>283</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>15</v>
@@ -7149,29 +7157,29 @@
       <c r="F132" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G132" s="4" t="s">
-        <v>360</v>
+      <c r="G132" s="8" t="s">
+        <v>397</v>
       </c>
       <c r="H132" s="3">
         <v>10006</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>366</v>
+        <v>284</v>
       </c>
       <c r="K132" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M132" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="45.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>1208</v>
       </c>
@@ -7179,10 +7187,10 @@
         <v>13</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>367</v>
+        <v>285</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>367</v>
+        <v>285</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>15</v>
@@ -7190,29 +7198,29 @@
       <c r="F133" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G133" s="4" t="s">
-        <v>368</v>
+      <c r="G133" s="8" t="s">
+        <v>399</v>
       </c>
       <c r="H133" s="3">
         <v>10006</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>369</v>
+        <v>286</v>
       </c>
       <c r="K133" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M133" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" ht="54.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="54.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>1209</v>
       </c>
@@ -7220,10 +7228,10 @@
         <v>13</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>370</v>
+        <v>287</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>370</v>
+        <v>287</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>15</v>
@@ -7231,29 +7239,29 @@
       <c r="F134" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G134" s="4" t="s">
-        <v>371</v>
+      <c r="G134" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="H134" s="3">
         <v>10006</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>372</v>
+        <v>288</v>
       </c>
       <c r="K134" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M134" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>1210</v>
       </c>
@@ -7261,10 +7269,10 @@
         <v>13</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>373</v>
+        <v>289</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>373</v>
+        <v>289</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>15</v>
@@ -7272,29 +7280,29 @@
       <c r="F135" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G135" s="4" t="s">
-        <v>368</v>
+      <c r="G135" s="8" t="s">
+        <v>399</v>
       </c>
       <c r="H135" s="3">
         <v>10006</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>374</v>
+        <v>290</v>
       </c>
       <c r="K135" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M135" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>1232</v>
       </c>
@@ -7302,10 +7310,10 @@
         <v>13</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>375</v>
+        <v>291</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>375</v>
+        <v>291</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>15</v>
@@ -7313,29 +7321,29 @@
       <c r="F136" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G136" s="4" t="s">
-        <v>376</v>
+      <c r="G136" s="8" t="s">
+        <v>401</v>
       </c>
       <c r="H136" s="3">
         <v>10006</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="K136" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M136" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>1233</v>
       </c>
@@ -7343,10 +7351,10 @@
         <v>13</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>15</v>
@@ -7354,29 +7362,29 @@
       <c r="F137" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G137" s="4" t="s">
-        <v>376</v>
+      <c r="G137" s="8" t="s">
+        <v>402</v>
       </c>
       <c r="H137" s="3">
         <v>10006</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="K137" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M137" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>1234</v>
       </c>
@@ -7384,10 +7392,10 @@
         <v>13</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>15</v>
@@ -7395,29 +7403,29 @@
       <c r="F138" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G138" s="4" t="s">
-        <v>381</v>
+      <c r="G138" s="8" t="s">
+        <v>403</v>
       </c>
       <c r="H138" s="3">
         <v>10006</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>382</v>
+        <v>296</v>
       </c>
       <c r="K138" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>1235</v>
       </c>
@@ -7425,10 +7433,10 @@
         <v>13</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>383</v>
+        <v>297</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>383</v>
+        <v>297</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>15</v>
@@ -7436,29 +7444,29 @@
       <c r="F139" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G139" s="4" t="s">
-        <v>384</v>
+      <c r="G139" s="8" t="s">
+        <v>404</v>
       </c>
       <c r="H139" s="3">
         <v>10006</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>385</v>
+        <v>299</v>
       </c>
       <c r="K139" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>1236</v>
       </c>
@@ -7466,10 +7474,10 @@
         <v>13</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>386</v>
+        <v>300</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>386</v>
+        <v>300</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>15</v>
@@ -7477,29 +7485,29 @@
       <c r="F140" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G140" s="4" t="s">
-        <v>384</v>
+      <c r="G140" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="H140" s="3">
         <v>10006</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>387</v>
+        <v>301</v>
       </c>
       <c r="K140" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M140" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>1237</v>
       </c>
@@ -7507,10 +7515,10 @@
         <v>13</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>388</v>
+        <v>302</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>388</v>
+        <v>302</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>15</v>
@@ -7518,29 +7526,29 @@
       <c r="F141" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G141" s="4" t="s">
-        <v>389</v>
+      <c r="G141" s="8" t="s">
+        <v>405</v>
       </c>
       <c r="H141" s="3">
         <v>10006</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
       <c r="K141" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M141" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>1238</v>
       </c>
@@ -7548,10 +7556,10 @@
         <v>13</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>391</v>
+        <v>304</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>391</v>
+        <v>304</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>15</v>
@@ -7559,29 +7567,29 @@
       <c r="F142" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G142" s="4" t="s">
-        <v>392</v>
+      <c r="G142" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="H142" s="3">
         <v>10006</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>393</v>
+        <v>305</v>
       </c>
       <c r="K142" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M142" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>1239</v>
       </c>
@@ -7589,10 +7597,10 @@
         <v>13</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>394</v>
+        <v>306</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>394</v>
+        <v>306</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>15</v>
@@ -7600,29 +7608,29 @@
       <c r="F143" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G143" s="4" t="s">
-        <v>395</v>
+      <c r="G143" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="H143" s="3">
         <v>10006</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>396</v>
+        <v>307</v>
       </c>
       <c r="K143" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M143" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>1240</v>
       </c>
@@ -7630,10 +7638,10 @@
         <v>13</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>397</v>
+        <v>308</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>397</v>
+        <v>308</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>15</v>
@@ -7641,29 +7649,29 @@
       <c r="F144" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G144" s="4" t="s">
-        <v>398</v>
+      <c r="G144" s="8" t="s">
+        <v>407</v>
       </c>
       <c r="H144" s="3">
         <v>10006</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>399</v>
+        <v>309</v>
       </c>
       <c r="K144" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M144" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>1241</v>
       </c>
@@ -7671,10 +7679,10 @@
         <v>13</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>15</v>
@@ -7682,29 +7690,29 @@
       <c r="F145" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G145" s="4" t="s">
-        <v>401</v>
+      <c r="G145" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="H145" s="3">
         <v>10006</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>402</v>
+        <v>311</v>
       </c>
       <c r="K145" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>1242</v>
       </c>
@@ -7712,10 +7720,10 @@
         <v>13</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>403</v>
+        <v>312</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>403</v>
+        <v>312</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>15</v>
@@ -7723,29 +7731,29 @@
       <c r="F146" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G146" s="4" t="s">
-        <v>401</v>
+      <c r="G146" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="H146" s="3">
         <v>10006</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>404</v>
+        <v>313</v>
       </c>
       <c r="K146" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>1243</v>
       </c>
@@ -7753,10 +7761,10 @@
         <v>13</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>405</v>
+        <v>314</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>405</v>
+        <v>314</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>15</v>
@@ -7764,26 +7772,26 @@
       <c r="F147" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G147" s="4" t="s">
-        <v>406</v>
+      <c r="G147" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="H147" s="3">
         <v>10006</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>407</v>
+        <v>315</v>
       </c>
       <c r="K147" s="5" t="b">
         <v>1</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
